--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value848.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value848.xlsx
@@ -354,7 +354,7 @@
         <v>1.763085937410674</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.209022512618479</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value848.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value848.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7844641791845511</v>
+        <v>0.7219566702842712</v>
       </c>
       <c r="B1">
-        <v>1.763085937410674</v>
+        <v>1.05582857131958</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.401817560195923</v>
       </c>
       <c r="D1">
-        <v>2.209022512618479</v>
+        <v>3.745327711105347</v>
       </c>
       <c r="E1">
-        <v>1.421038810214668</v>
+        <v>2.054075479507446</v>
       </c>
     </row>
   </sheetData>
